--- a/backend/api/servicehandler/services/Financial Advisor Planner.xlsx
+++ b/backend/api/servicehandler/services/Financial Advisor Planner.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/behnaz_merikhi_utoronto_ca/Documents/ASD Project/DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dextertam/Documents/UofT/Y3/_Extracurricular/AutismCanadaAI/backend/api/servicehandler/services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E5E080B6-3073-4D6E-BEEB-1945762BA731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E1D48-A4F4-FF49-A638-1DC4B1ACD1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -116,9 +115,6 @@
     <t>364 Supertest Rd. Unit 208. Toronto, ONM3J 2M2</t>
   </si>
   <si>
-    <t>1(844)8006020</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/disability-tax-credit-consultant-services?nid=572321</t>
   </si>
   <si>
@@ -179,9 +175,6 @@
     <t>PO Box 262 Harrison Hot Springs, BCV0M 1K0</t>
   </si>
   <si>
-    <t>888-508-3028 ext 101</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/im-kids-team?nid=559701</t>
   </si>
   <si>
@@ -251,9 +244,6 @@
     <t>12 Folkins Drive Sackville, NBE4L 1H9</t>
   </si>
   <si>
-    <t>506-536-4565</t>
-  </si>
-  <si>
     <t>Myautism webpage Info</t>
   </si>
   <si>
@@ -264,6 +254,15 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>(844) 800-6020</t>
+  </si>
+  <si>
+    <t>(888) 508-3028-101</t>
+  </si>
+  <si>
+    <t>(506) 536-4565</t>
   </si>
 </sst>
 </file>
@@ -651,33 +650,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="194" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
-    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -691,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -705,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -719,7 +718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -733,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -747,7 +746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -761,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -775,7 +774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -786,189 +785,189 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
